--- a/danilo.xlsx
+++ b/danilo.xlsx
@@ -1,33 +1,109 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\WeatherDataProcessing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028DFDC5-56CF-4B02-A7BE-9015A3F1EE3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>TEMPERATURA DO AR (°C)</t>
+  </si>
+  <si>
+    <t>UMIDADE RELATIVA DO AR (%)</t>
+  </si>
+  <si>
+    <t>TEMPERATURA DO PONTO DE ORVALHO (°C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEMPERATURA MÁXIMA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEMPERATURA MÍNIMA   </t>
+  </si>
+  <si>
+    <t>TEMPERATURA MÁXIMA DO PONTO DE ORVALHO (°C)</t>
+  </si>
+  <si>
+    <t>TEMPERATURA MÍNIMA DO PONTO DE ORVALHO (°C)</t>
+  </si>
+  <si>
+    <t>UMIDADE RELATIVA MAXIMA DO AR (%)</t>
+  </si>
+  <si>
+    <t>UMIDADE RELATIVA MINIMA DO AR (%)</t>
+  </si>
+  <si>
+    <t>08/2018</t>
+  </si>
+  <si>
+    <t>09/2018</t>
+  </si>
+  <si>
+    <t>10/2018</t>
+  </si>
+  <si>
+    <t>11/2018</t>
+  </si>
+  <si>
+    <t>12/2018</t>
+  </si>
+  <si>
+    <t>01/2019</t>
+  </si>
+  <si>
+    <t>02/2019</t>
+  </si>
+  <si>
+    <t>03/2019</t>
+  </si>
+  <si>
+    <t>04/2019</t>
+  </si>
+  <si>
+    <t>05/2019</t>
+  </si>
+  <si>
+    <t>06/2019</t>
+  </si>
+  <si>
+    <t>07/2019</t>
+  </si>
+  <si>
+    <t>08/2019</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,12 +122,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -339,281 +424,470 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A1048576"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Temp. Máximo ºC</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Temp. Mínima ºC</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Precipitação (mm)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>08/2018</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>21.00456989247312</v>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>21.004569892473121</v>
+      </c>
+      <c r="C2">
+        <v>76.489247311827953</v>
+      </c>
+      <c r="D2">
+        <v>16.107258064516131</v>
+      </c>
+      <c r="E2">
         <v>31.3</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2">
         <v>13.4</v>
       </c>
-      <c r="E2" t="n">
-        <v>54.4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>09/2018</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="G2">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="H2">
+        <v>6.3</v>
+      </c>
+      <c r="I2">
+        <v>96</v>
+      </c>
+      <c r="J2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
         <v>23.14777777777778</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
+        <v>68.441666666666663</v>
+      </c>
+      <c r="D3">
+        <v>16.232361111111111</v>
+      </c>
+      <c r="E3">
         <v>36</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3">
         <v>13.2</v>
       </c>
-      <c r="E3" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>10/2018</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>24.42956989247311</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="G3">
+        <v>21.5</v>
+      </c>
+      <c r="H3">
+        <v>7.3</v>
+      </c>
+      <c r="I3">
+        <v>95</v>
+      </c>
+      <c r="J3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>24.429569892473111</v>
+      </c>
+      <c r="C4">
+        <v>71.237903225806448</v>
+      </c>
+      <c r="D4">
+        <v>18.246505376344089</v>
+      </c>
+      <c r="E4">
         <v>36.6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4">
         <v>14.7</v>
       </c>
-      <c r="E4" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>11/2018</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>24.52361111111111</v>
-      </c>
-      <c r="C5" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="G4">
+        <v>23.6</v>
+      </c>
+      <c r="H4">
+        <v>10.1</v>
+      </c>
+      <c r="I4">
+        <v>94</v>
+      </c>
+      <c r="J4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>24.523611111111109</v>
+      </c>
+      <c r="C5">
+        <v>75.168055555555554</v>
+      </c>
+      <c r="D5">
+        <v>19.25180555555556</v>
+      </c>
+      <c r="E5">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="F5">
         <v>17.8</v>
       </c>
-      <c r="E5" t="n">
-        <v>223.6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>12/2018</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>25.58077956989247</v>
-      </c>
-      <c r="C6" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="G5">
+        <v>23.9</v>
+      </c>
+      <c r="H5">
+        <v>13.1</v>
+      </c>
+      <c r="I5">
+        <v>96</v>
+      </c>
+      <c r="J5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>25.580779569892471</v>
+      </c>
+      <c r="C6">
+        <v>73.744623655913983</v>
+      </c>
+      <c r="D6">
+        <v>19.89516129032258</v>
+      </c>
+      <c r="E6">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="F6">
         <v>16.7</v>
       </c>
-      <c r="E6" t="n">
-        <v>220.4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>01/2019</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>28.15510752688172</v>
-      </c>
-      <c r="C7" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="D7" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="E7" t="n">
-        <v>37.6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>02/2019</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+      <c r="G6">
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <v>12.2</v>
+      </c>
+      <c r="I6">
+        <v>95</v>
+      </c>
+      <c r="J6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>28.155107526881721</v>
+      </c>
+      <c r="C7">
+        <v>63.422043010752688</v>
+      </c>
+      <c r="D7">
+        <v>19.34650537634408</v>
+      </c>
+      <c r="E7">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="F7">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G7">
+        <v>24.2</v>
+      </c>
+      <c r="H7">
+        <v>3.2</v>
+      </c>
+      <c r="I7">
+        <v>95</v>
+      </c>
+      <c r="J7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
         <v>26.9764880952381</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
+        <v>72.46577380952381</v>
+      </c>
+      <c r="D8">
+        <v>20.868898809523809</v>
+      </c>
+      <c r="E8">
         <v>39.1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F8">
         <v>20</v>
       </c>
-      <c r="E8" t="n">
-        <v>193.6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>03/2019</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>26.18481182795699</v>
-      </c>
-      <c r="C9" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="G8">
+        <v>25.4</v>
+      </c>
+      <c r="H8">
+        <v>11.8</v>
+      </c>
+      <c r="I8">
+        <v>95</v>
+      </c>
+      <c r="J8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>26.184811827956992</v>
+      </c>
+      <c r="C9">
+        <v>75.153225806451616</v>
+      </c>
+      <c r="D9">
+        <v>20.823387096774191</v>
+      </c>
+      <c r="E9">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="F9">
         <v>18.5</v>
       </c>
-      <c r="E9" t="n">
-        <v>186.2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>04/2019</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>25.33680555555556</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="G9">
+        <v>25.4</v>
+      </c>
+      <c r="H9">
+        <v>15.4</v>
+      </c>
+      <c r="I9">
+        <v>95</v>
+      </c>
+      <c r="J9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>25.336805555555561</v>
+      </c>
+      <c r="C10">
+        <v>77.112499999999997</v>
+      </c>
+      <c r="D10">
+        <v>20.563749999999999</v>
+      </c>
+      <c r="E10">
         <v>35.9</v>
       </c>
-      <c r="D10" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="E10" t="n">
-        <v>85.2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>05/2019</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>23.66922043010753</v>
-      </c>
-      <c r="C11" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="F10">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G10">
+        <v>23.6</v>
+      </c>
+      <c r="H10">
+        <v>16.5</v>
+      </c>
+      <c r="I10">
+        <v>95</v>
+      </c>
+      <c r="J10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>23.669220430107529</v>
+      </c>
+      <c r="C11">
+        <v>78.370967741935488</v>
+      </c>
+      <c r="D11">
+        <v>19.173118279569891</v>
+      </c>
+      <c r="E11">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="F11">
         <v>17</v>
       </c>
-      <c r="E11" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>06/2019</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+      <c r="G11">
+        <v>23.5</v>
+      </c>
+      <c r="H11">
+        <v>12.5</v>
+      </c>
+      <c r="I11">
+        <v>95</v>
+      </c>
+      <c r="J11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
         <v>21.88208333333333</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
+        <v>74.727777777777774</v>
+      </c>
+      <c r="D12">
+        <v>16.525416666666668</v>
+      </c>
+      <c r="E12">
         <v>34.6</v>
       </c>
-      <c r="D12" t="n">
+      <c r="F12">
         <v>12.7</v>
       </c>
-      <c r="E12" t="n">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>07/2019</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+      <c r="G12">
+        <v>21.4</v>
+      </c>
+      <c r="H12">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I12">
+        <v>96</v>
+      </c>
+      <c r="J12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
         <v>20.34326145552561</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
+        <v>68.556603773584911</v>
+      </c>
+      <c r="D13">
+        <v>13.282210242587601</v>
+      </c>
+      <c r="E13">
         <v>35.1</v>
       </c>
-      <c r="D13" t="n">
+      <c r="F13">
         <v>9.4</v>
       </c>
-      <c r="E13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>08/2019</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>21.53991935483871</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="G13">
+        <v>19</v>
+      </c>
+      <c r="H13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I13">
+        <v>96</v>
+      </c>
+      <c r="J13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>20.82728494623656</v>
+      </c>
+      <c r="C14">
+        <v>71.185483870967744</v>
+      </c>
+      <c r="D14">
+        <v>14.55846774193548</v>
+      </c>
+      <c r="E14">
         <v>34.1</v>
       </c>
-      <c r="D14" t="n">
+      <c r="F14">
         <v>10.1</v>
       </c>
-      <c r="E14" t="n">
-        <v>25.8</v>
+      <c r="G14">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>96</v>
+      </c>
+      <c r="J14">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
